--- a/test_models/users.xlsx
+++ b/test_models/users.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTON\PycharmProjects\FlaskBasic\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>имя</t>
   </si>
@@ -41,9 +36,6 @@
     <t>123qwerty</t>
   </si>
   <si>
-    <t>М</t>
-  </si>
-  <si>
     <t>фамилия2</t>
   </si>
   <si>
@@ -59,13 +51,22 @@
     <t>456asdf</t>
   </si>
   <si>
-    <t>Ж</t>
+    <t>Мужской</t>
+  </si>
+  <si>
+    <t>Женский</t>
+  </si>
+  <si>
+    <t>В браке</t>
+  </si>
+  <si>
+    <t>Не состоит в браке</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -205,7 +206,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -382,7 +383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -390,15 +391,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -427,18 +431,21 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>1999</v>
@@ -453,13 +460,16 @@
         <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -468,5 +478,6 @@
     <hyperlink ref="H2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/test_models/users.xlsx
+++ b/test_models/users.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo17\PycharmProjects\FlaskBasic\test_models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12072"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -66,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,7 +388,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -391,18 +396,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="N1" activeCellId="1" sqref="L2 N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -436,8 +441,11 @@
       <c r="K1" t="s">
         <v>12</v>
       </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -470,6 +478,9 @@
       </c>
       <c r="K2" t="s">
         <v>13</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test_models/users.xlsx
+++ b/test_models/users.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo17\PycharmProjects\FlaskBasic\test_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTON\PycharmProjects\FlaskBasic\test_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>имя</t>
   </si>
@@ -66,6 +66,21 @@
   </si>
   <si>
     <t>Не состоит в браке</t>
+  </si>
+  <si>
+    <t>фамилия 3</t>
+  </si>
+  <si>
+    <t>имя 3</t>
+  </si>
+  <si>
+    <t>отчество 3</t>
+  </si>
+  <si>
+    <t>another@email.com</t>
+  </si>
+  <si>
+    <t>qwerty1</t>
   </si>
 </sst>
 </file>
@@ -176,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -211,7 +226,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -396,18 +411,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" activeCellId="1" sqref="L2 N1:N1048576"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -445,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -481,14 +496,53 @@
       </c>
       <c r="L2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1960</v>
+      </c>
+      <c r="E3">
+        <v>64</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H1" r:id="rId1"/>
     <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/test_models/users.xlsx
+++ b/test_models/users.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTON\PycharmProjects\FlaskBasic\test_models\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075"/>
   </bookViews>
@@ -86,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -226,7 +221,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -403,7 +398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -414,7 +409,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +507,7 @@
         <v>1960</v>
       </c>
       <c r="E3">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>21</v>

--- a/test_models/users.xlsx
+++ b/test_models/users.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\FlaskBasic\test_models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075"/>
   </bookViews>
@@ -21,30 +26,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
-    <t>имя</t>
-  </si>
-  <si>
-    <t>фамилия</t>
-  </si>
-  <si>
-    <t>отчество</t>
-  </si>
-  <si>
     <t>email@emai.com</t>
   </si>
   <si>
     <t>123qwerty</t>
   </si>
   <si>
-    <t>фамилия2</t>
-  </si>
-  <si>
-    <t>имя2</t>
-  </si>
-  <si>
-    <t>отчество2</t>
-  </si>
-  <si>
     <t>new_email@yandex.ru</t>
   </si>
   <si>
@@ -63,26 +50,44 @@
     <t>Не состоит в браке</t>
   </si>
   <si>
-    <t>фамилия 3</t>
-  </si>
-  <si>
-    <t>имя 3</t>
-  </si>
-  <si>
-    <t>отчество 3</t>
-  </si>
-  <si>
     <t>another@email.com</t>
   </si>
   <si>
     <t>qwerty1</t>
+  </si>
+  <si>
+    <t>Квартовский</t>
+  </si>
+  <si>
+    <t>Сухиха</t>
+  </si>
+  <si>
+    <t>Чехов</t>
+  </si>
+  <si>
+    <t>Степан</t>
+  </si>
+  <si>
+    <t>Елена</t>
+  </si>
+  <si>
+    <t>Герман</t>
+  </si>
+  <si>
+    <t>Родионович</t>
+  </si>
+  <si>
+    <t>Емельяновна</t>
+  </si>
+  <si>
+    <t>Всеволодов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +104,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,9 +134,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -398,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -409,23 +422,24 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D1">
         <v>2000</v>
@@ -440,30 +454,30 @@
         <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1999</v>
@@ -478,30 +492,30 @@
         <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:12" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D3">
         <v>1960</v>
@@ -516,16 +530,16 @@
         <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L3">
         <v>2</v>

--- a/test_models/users.xlsx
+++ b/test_models/users.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test_models/users.xlsx
+++ b/test_models/users.xlsx
@@ -106,11 +106,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="19"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,8 +138,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -419,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,125 +433,139 @@
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>15500</v>
+      </c>
+      <c r="F1" s="1">
         <v>2000</v>
       </c>
-      <c r="E1">
+      <c r="G1" s="1">
         <v>12</v>
       </c>
-      <c r="F1">
+      <c r="H1" s="1">
         <v>13</v>
       </c>
-      <c r="G1">
+      <c r="I1" s="1">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1">
+      <c r="N1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>35450</v>
+      </c>
+      <c r="F2" s="1">
         <v>1999</v>
       </c>
-      <c r="E2">
+      <c r="G2" s="1">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="I2" s="1">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2">
+      <c r="N2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
         <v>1960</v>
       </c>
-      <c r="E3">
+      <c r="G3" s="1">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="H3" s="1">
         <v>21</v>
       </c>
-      <c r="G3">
+      <c r="I3" s="1">
         <v>33</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3">
+      <c r="N3" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H1" r:id="rId1"/>
-    <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="J1" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/test_models/users.xlsx
+++ b/test_models/users.xlsx
@@ -424,13 +424,14 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -473,9 +474,7 @@
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1">
-        <v>1</v>
-      </c>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -517,9 +516,7 @@
       <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -557,9 +554,7 @@
       <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="1">
-        <v>2</v>
-      </c>
+      <c r="N3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/test_models/users.xlsx
+++ b/test_models/users.xlsx
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +434,7 @@
     <col min="13" max="13" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -474,9 +474,8 @@
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -516,9 +515,8 @@
       <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -554,7 +552,6 @@
       <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/test_models/users.xlsx
+++ b/test_models/users.xlsx
@@ -136,10 +136,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -421,20 +422,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -450,32 +452,26 @@
       <c r="E1" s="1">
         <v>15500</v>
       </c>
-      <c r="F1" s="1">
-        <v>2000</v>
+      <c r="F1" s="3">
+        <v>36873</v>
       </c>
       <c r="G1" s="1">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -491,32 +487,26 @@
       <c r="E2" s="1">
         <v>35450</v>
       </c>
-      <c r="F2" s="1">
-        <v>1999</v>
+      <c r="F2" s="3">
+        <v>36221</v>
       </c>
       <c r="G2" s="1">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -528,36 +518,30 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>1960</v>
+      <c r="F3" s="3">
+        <v>21996</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1">
         <v>33</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="H1" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
